--- a/result_transposed_impulse.xlsx
+++ b/result_transposed_impulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FB3268-67CC-458A-A9BF-95266799E365}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impulse" sheetId="1" r:id="rId1"/>
@@ -1693,10 +1693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>55770221.942407846</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>46465916.876788437</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>20545513.967246529</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>18523307.889140431</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>17452842.474384312</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>16298000.020153999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>15711452.693611151</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>15571942.725438589</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>15169921.97796518</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>11053440.193761891</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>9684781.2866067886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>9369065.4437541962</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>8103598.0029461384</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>7529325.2787940502</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>7324011.121209383</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>7202828.4669683278</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>6363514.15979743</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>6201940.5854701996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>6096517.5928940773</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>6035558.6845397949</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>5933770.7454748154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>5878216.1116979718</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>5692796.0237360001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>5340665.4770812988</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>4818338.4539327621</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>4764020.6969067454</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>4546399.7313151956</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>4532821.2478837967</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>4467090.9366878867</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>4308772.892416954</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>4014875.6533540492</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>3423103.6741142268</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>3305207.2508635521</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>2973764.1534481049</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>2957981.9302036762</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>2942096.768611908</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>2942075.047362328</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>2903109.3930103779</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>2323516.9753360748</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>2262029.680346698</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>2075991.335204124</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>2074676.037470818</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>1916634.4417220349</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>1746241.2782592771</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>1606128.7592449191</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>1587152.5007829671</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>1360238.5641064639</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>1356025.6505455079</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>1347930.7797966001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>1292023.522026062</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>1258540.822709084</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>1185032.505872726</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>1175199.8911437991</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>1108867.00885129</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>1099550.015556335</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>1034052.3911871311</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>1031059.812595367</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>963119.04015824199</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>945146.6638250351</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>932907.50855284929</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>921912.79785513878</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>913096.83284109831</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>884824.06703948975</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>726013.85114991665</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>706080.75384747982</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>639280.54974770546</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>634294.781686306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>598789.01707708836</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>578574.20780277252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>535716.75380122662</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>521293.93265962601</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>509071.56977510452</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>472409.81228721142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>468073.24111676222</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>454908.04010438919</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>422291.95117592812</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>416766.37711501122</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>415297.82383346558</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>398644.88916873932</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>365639.18351626402</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>363408.12446880341</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>349899.78330782062</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>338242.73083853722</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>320692.09221452469</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>290389.87158495188</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>252857.97393631941</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>245866.55733072761</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>235074.84858226779</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>228113.43232905859</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>203442.20025837421</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>202006.5550746918</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>187593.31615751979</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>184380.56339555979</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>160239.38199460509</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>156280.58438110349</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>132359.2346325815</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>121050.34556078909</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>105837.3465720415</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>94620.464923262596</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>85720.225170135498</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>85690.280828952789</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>79988.98092764616</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>72226.560204982758</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>71174.347816467285</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>69379.951879501343</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>43260</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>42833.564056396477</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>38893.481977939613</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>37031.299996167421</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>31098.547906637192</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>29666.8088247776</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>28204.83595657349</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>26934.785971641541</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>25003.872966766361</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>24427.766067028049</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>23890.47399425507</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>23437.95099973679</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>22807.48094928265</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>20076.60499894619</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>19752.504978179932</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>14715.89100283384</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>14161.620193481451</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>13795.156014561649</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>12937.140891075131</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>11548.97490978241</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>10637.91201800108</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>8208.2189792096615</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>7261.5389823913574</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>7113.2351137399673</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>6400.637978553772</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>6098.4000849723816</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>4635.4830008745193</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>4166.2280209362507</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>3449.6190037727361</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>2744.904998421669</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>1570.847011089325</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>1512.721004486084</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>1243.3979977369311</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>1222.4830055236821</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>1073.767007708549</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>1069.9360046386721</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>992.09201049804688</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>625.19399696588516</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>533.40000212192535</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>484.89099740982061</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>312.17500394582748</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>133.2159991264343</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>107.3149968385696</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>89.171998262405396</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>61.160000562667847</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>50.73799991607666</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>32.670001029968262</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>23.760000228881839</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>21.300000667572021</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>19.470000475645069</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>18.232000350952148</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>10.40600001811981</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>9.8999996185302734</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>8.5030002593994141</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>7.9520001411437988</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>7.9200000762939453</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>7.3829998970031738</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>4.2900001704692841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>3.630000084638596</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>3.5199999809265141</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>3.5199999809265141</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>3.3000000715255742</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>3.2999999523162842</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>3.1679999828338619</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>1.9800000190734861</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>1.200000047683716</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -6548,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>-10.560000419616699</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>-46.199999332427979</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -6731,7 +6732,133 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D359" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D359" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl Estimated Weight single_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Grani Antichi Btl 750 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Keg 2 L single_Volume"/>
+        <filter val="c_sku_Birra Moretti Keg 8 L single_Volume"/>
+        <filter val="c_sku_Birra Moretti Siciliana Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Toscana Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Zero Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Aluminium Bottle 473 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Btl 300 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Btl Estimated Weight single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar B Strong Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Dark Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Keg 5 L single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Nealko Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Budvar Reserve Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Can 473 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Can 568 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Can Estimated Weight single_Volume"/>
+        <filter val="c_sku_Budweiser Keg 5 L single_Volume"/>
+        <filter val="c_sku_Budweiser Keg 5000 Ml single_Volume"/>
+        <filter val="c_sku_Budweiser Keg 6 L single_Volume"/>
+        <filter val="c_sku_Budweiser Prohibition Brew Alcohol Free Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Corona Aluminium Bottle 473 Ml single_Volume"/>
+        <filter val="c_sku_Corona Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Corona Btl 355 Ml single_Volume"/>
+        <filter val="c_sku_Corona Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Corona Btl 710 Ml single_Volume"/>
+        <filter val="c_sku_Corona Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Corona Keg 6 L single_Volume"/>
+        <filter val="c_sku_Cruzcampo Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Cruzcampo Especial Keg 2 L single_Volume"/>
+        <filter val="c_sku_Estrella Damm Barcelona Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Barcelona Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Barcelona Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Barcelona Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Cerveza De Navidad Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Daura/gluten Free Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Inedit Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Damm Inedit Btl 750 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Galicia 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Galicia Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Estrella Galicia Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Btl 650 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Btl 8 L single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Btl Estimated Weight single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 2 L single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Can 568 Ml single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Keg 5 L single_Volume"/>
+        <filter val="c_sku_Heineken (5%) Plastic Bottle 400 Ml single_Volume"/>
+        <filter val="c_sku_Heineken 0.0 Alcohol Free Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Heineken Cf Btl 275 Ml single_Volume"/>
+        <filter val="c_sku_Heineken Silver Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Heineken Silver Btl 650 Ml single_Volume"/>
+        <filter val="c_sku_Heineken Silver Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Heineken Silver Keg 8 L single_Volume"/>
+        <filter val="c_sku_Madri Exceptional Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Madri Exceptional Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Puro Malto Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Rossa Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Red Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Red Can 500 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel 0.0% Can 330 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Btl 1 L single_Volume"/>
+        <filter val="c_sku_San Miguel Btl 275 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Can 440 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Can 500 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Can 568 Ml single_Volume"/>
+        <filter val="c_sku_San Miguel Fresca Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois (4%) Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois (4%) Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 284 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Btl 750 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Btl Estimated Weight single_Volume"/>
+        <filter val="c_sku_Stella Artois Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Can 568 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Keg 6 L single_Volume"/>
+        <filter val="c_sku_Stella Artois Unfiltered Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Unfiltered Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Unfiltered Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Stella Artois Unfiltered Keg 6 L single_Volume"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6740,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E0846-0DBF-4F08-8819-3502ECC42DAE}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8697,8 +8824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276766FD-743B-4C75-8F35-9089F0CB4B76}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
